--- a/src/main/resources/event.xlsx
+++ b/src/main/resources/event.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{6657224B-5C68-4D5B-A330-32058CC6B822}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KRISHNAM\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="5895" xr2:uid="{CF0D3A8B-C621-4F26-91D2-E6230D18B476}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13170" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,35 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Enterprise Id</t>
-  </si>
-  <si>
-    <t>Location Drop</t>
-  </si>
-  <si>
-    <t>Food Preference</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>Shridhar</t>
   </si>
   <si>
-    <t>s.mishra.mishra</t>
-  </si>
-  <si>
     <t>Veg Thali</t>
   </si>
   <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
-    <t>Employee Id</t>
-  </si>
-  <si>
     <t>Chirag</t>
   </si>
   <si>
@@ -59,22 +41,28 @@
     <t>Rupali</t>
   </si>
   <si>
-    <t>chirag.v.kumar</t>
-  </si>
-  <si>
-    <t>rupali.ambre</t>
-  </si>
-  <si>
-    <t>Pune</t>
-  </si>
-  <si>
-    <t>zaid.abid.makani</t>
+    <t>empid</t>
+  </si>
+  <si>
+    <t>empname</t>
+  </si>
+  <si>
+    <t>careerlevel</t>
+  </si>
+  <si>
+    <t>duname</t>
+  </si>
+  <si>
+    <t>worklocation</t>
+  </si>
+  <si>
+    <t>baro02</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -84,9 +72,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -100,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -143,51 +130,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -286,47 +228,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,127 +574,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886B7E75-416C-4C49-896D-B497CF4F92BC}">
-  <dimension ref="A1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="E1" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>11119094</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="5">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>11119095</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="C3" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>10866520</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="C4" s="6">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>11119094</v>
-      </c>
-      <c r="B2" s="7" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>11119097</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>6</v>
+      <c r="C5" s="6">
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>11119095</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>6</v>
-      </c>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="9"/>
     </row>
-    <row r="4" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>10866520</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>11119097</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
